--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/29_Elazığ_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/29_Elazığ_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC40EE46-9AFB-4050-83E5-083913E7C42F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE2223CA-D171-4FDC-9F1E-5ADD072979E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="682" xr2:uid="{820FF1E6-688A-4989-AC90-AD4C3AC701F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="682" xr2:uid="{760BD765-B590-4EF4-B171-3C7EFA4B6C62}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -980,13 +980,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{42479038-7BA6-41A8-9A50-5BA45E44410D}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{C81355FA-1E44-4A1C-8611-A5F4B0403600}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{93F8C33B-A124-482A-8AF9-C8DE4ABD9D43}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{E7D2E767-C6C9-47AC-8FD0-FC2649D53BF7}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{74F9CEA7-AAB2-4171-9A0F-22D2655BB70A}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{F5CB96B2-7753-4CF2-85B2-427656ABD502}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{3AD97DB1-D161-4693-A985-3C41B5B12EDB}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{686D1A4E-CB74-49C1-BCCC-6D1CE23BA6BA}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{AD0F9EA3-7DEE-4DE7-8623-F4F3ECF69CB8}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{538EFF3C-6E01-42B7-961A-319D219D5752}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{297C5D4B-55C1-4195-BA0C-85B817E93844}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{14BCADC8-54DB-41D5-BBAB-949038595B93}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{37F08502-5CE9-41DA-A721-4E3FDA07530B}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{C775AC7D-5E29-4326-B868-6971B0CB98C1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1356,7 +1356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6BCD02-76B3-4C61-8A42-C27223FA980D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DD04DC-BF4D-4080-9552-A64B33D63D52}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2646,17 +2646,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{57A0BDA6-271C-4EA9-BDD2-AE484191E5AD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{87B2A0C9-B0A0-4B7D-B25A-CE364369A9CE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DA0FD681-C6F3-4EDE-BB16-FB5125162622}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E2DD41E9-EE5A-4643-986F-BAE8D6803264}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{169A8329-34F4-4F12-A7B4-7973528624B7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{ACE9989D-AD0E-4B99-9650-BCC0C6E3987D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EC41A2D4-30D2-471F-96C3-ABAA99A257E1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{55780665-77F3-4AEB-91AF-7325B32F0109}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{121085BB-31C6-4A4A-A9E7-5AD9ED0C3165}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{EA99099A-7DD1-4EB0-A84C-21E7A39F0BE6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A7DE0B7E-800B-4312-9E0C-C0C9E931E956}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3C8F1EAD-2F10-4FC1-AA9B-234D371C3598}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B9EF8BC5-488A-4D5A-87D1-D64BDBC4EA22}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{785D94B1-5BF1-4EE6-8DA6-B8F5E61D2C24}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{FF2AE640-C05C-4821-9725-09201CCC57C3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{96928463-05C7-4163-83D3-765E9E0F9129}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{375914BE-5450-4B04-87E5-4542C6F57A4E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7F8B2ED7-8E8B-4FE8-A990-9B23739C6490}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{135D6D7A-E419-487E-9F4D-AF651F6B3536}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{27058EA0-50D9-4F9A-B0FF-09B3EE5AE559}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{07F5DC3A-E401-4086-A3C0-A575C6AEDC8A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{29B98AC7-CF03-455F-A4A6-383BD17D1A3E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2669,7 +2669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7238B9CA-9F63-4978-8247-8089770C5FCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A90D257E-91F7-4A8B-9422-334EEDF27A28}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -3955,17 +3955,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DF33BC80-1D98-499F-A24C-EE88DCBCE98F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0D678B8A-FD9E-475C-9514-D1CDE50FFF01}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DF0E3DAC-2D52-4838-A738-08D741958AE4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DC204D2D-52AB-48F6-8081-335EDEFE338B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A35AB248-5940-453B-8458-B37769838692}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B34D2A13-7AF3-4B4B-9057-85CF4645AB6B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B008982E-98B1-4025-BEB8-FCF52802EF29}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F49A7504-3EE4-40FF-BD99-6EF880842AD5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{24022A4A-9237-4D2B-BFCA-7FBFC40C7964}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C2EF2189-629E-4F8D-848B-A29231EADE8F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{51A33988-3BD6-453F-8204-26BD1C078FD9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{74186354-94C1-4EA2-94F4-413AA1F466B7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2B9591A3-399B-41C9-B00A-EEA0F086BCCD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{043C873B-77B4-4FB4-9D4B-C9419F9B6CCB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B88D5C20-E648-4B97-8765-41BA896D3DE4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{48A8E32D-D5FA-479C-9C78-A4AF635411D7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{95EF557B-2EAA-4ADE-B2A6-A5FF9F50DF85}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BD63F4C8-EB20-4F32-BB9E-368F39F9FC52}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A3176397-E3E9-4B97-9E98-71135FB931EC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{04EB1F0F-13AA-4439-8A9D-6A71021C94C7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C170C267-77E2-44FC-BE64-11E952D5D20B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{493DE119-D255-42F2-93D0-1B5057A875CF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3978,7 +3978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2EDD263-1C77-4572-B23F-2955219AC196}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D6A3E9F-9EB6-47FC-B010-DA5EF335F2EA}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -5252,17 +5252,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FC36D1EC-6F0B-41AB-B4D5-C067F47EBE03}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7F4BDAEA-F973-44A2-8BBF-CA6E8AFDE027}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A3B26621-4206-450B-8681-6263FD40C7CD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AD979D7F-393D-4321-9FD0-D6BCD94B4262}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3B6CB1A5-A7BD-41F2-9EF5-5391CC16EE0A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FD6F664B-C6C0-4E98-AD4C-C2416ABCB1D5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{11EFE462-140B-4174-B09A-7C922024C7A8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4F087BCC-B1A8-4BAF-BD1A-9BEA034C7BC6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{74407E3D-D8B6-4788-BFFE-03A9EEFE6AAF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{3F4D39B0-4EA2-49C8-B218-9528C2DDD3F1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EDF91FFD-84C0-45B9-B875-43BA09C6D966}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{742D7EDE-D18C-45C7-9D1F-DC1EA804937F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{28FB396F-ABD6-4EB6-8102-B587378ACAAA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AAF0C5F7-8844-40A7-95FA-8597FD396D10}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F63B10CF-A959-4419-BF6C-CD75BD1C91C7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F976C44A-6678-4E1B-8BC2-55345A6ED1FA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1ADDF6D3-CEF6-4D38-8788-2840ECB1F267}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C689401F-71FF-4704-BD83-9814281A521D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3F5E4CBC-D648-47BF-944C-495B3170C46F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{2AA00696-23F0-47B6-AE18-603FD8F632E9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2C2C43C1-525A-432A-9EFE-A864FBBA4324}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7785A599-6BC1-489D-9CCE-108B673C1E35}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5275,7 +5275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBA3BFC-0204-43B2-AEFF-5A43D021424E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{166C2113-4F60-43E4-9867-CECC952EE5D3}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -6529,17 +6529,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4534C074-2E79-4019-BE2E-AE536DD8992B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C8B5B91C-6623-4796-8C2C-BED0637BF1D9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{64E68347-CA9C-4A61-9BFB-948281ABB1CD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B7AD5E76-4BE9-4ED0-8DA1-3F2EF85B7E3C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{16C15772-CFF2-4693-BCFD-F12697B1EAAE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AB527978-76AF-40A3-B049-A31BBA0566DE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{36BE647A-01FA-4F44-84BE-2996B764D2AB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F10445A8-D79E-42D6-A536-81F47EEA6896}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{09E827FB-1B86-4C8A-A54B-D4137CB63A5B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5DC6D8F4-54D6-44F7-B58A-EFD81A0E4EE6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7741182A-3096-4CB3-B427-33041E6D5861}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{64B4DC82-3057-4571-A76F-FE1FAB9636D5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F5F7EE41-226B-4EA3-A2F7-952F0E476E8F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B8BDED36-69F0-4B1A-A462-A0FB455C2E2C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{952F083C-97DB-4AE8-BA06-02B3875FF082}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9DC7F435-9416-47F9-9109-E54749512669}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{77DD943A-9904-4D51-A4AE-4A0F526A426D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D46C59A5-D030-4282-8272-B0759A77E662}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{06089F91-191E-40C5-BE0E-7D17DBEBBC8C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{75C3373A-95BE-43BF-91DD-AFEB6DD34FDA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{466E8386-E635-486C-BAF3-8DBE070B578A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CD823C8F-7B4C-40A9-9028-C1536DA49381}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6552,7 +6552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92FEA94D-1C7C-4CC3-B290-5A62C7D51322}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D342CB-961E-4DF2-A9FC-6D4F2A1FE34C}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7837,17 +7837,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9905C2BB-F407-4323-BA2E-BEE9E087C1EC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B811816A-8577-4CE3-A33D-1D174D70A408}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{33CD7CBC-0293-4FBA-942C-AAAC36228331}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6AD180B0-9AF0-4013-9275-608AA8AA81F8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D592F45A-ED5F-4DA0-BCA9-4C450548AAB2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DEBC0465-4960-4F56-AFCD-E2CF5943C96E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4B058075-DE41-473B-90B7-DE806E9E0E0F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DBDB6FE8-93E3-4761-B4D9-54D4B2856440}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{43BFF2D4-045B-4DF5-BCEE-5D4C6B47FC68}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{06565A64-7DD6-45E1-B042-0F1AD4D9B34C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EC688688-0C7B-4F88-945C-113AF6942FAF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B982B699-7AC0-411B-B06E-AE971513E939}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BB1B028A-8151-4BFB-8646-055ACF8F6D25}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4099E14D-30EE-4CEB-B228-89C63730A681}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AFD00397-4616-41C8-BC94-B44C1FC81EB8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AAD57272-28DC-4F48-8369-EB2936A8CE12}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6C9FAC78-AA47-4746-AB81-0A81FFEA7FAC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3E980684-E2BE-4BA1-9F84-94F4DA8EF29D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{76B1A29B-1498-4E9E-BF30-CB5534DB2238}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3A71C01A-7503-4A0B-8A67-B80CEAB3A8C6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{13E482BF-497F-402B-B396-FD1A0300AEDE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4C25DEF2-13A7-4BC0-89B2-7A31F49D90E8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7860,7 +7860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D12C43-DEF5-41C3-9EC0-C12424319B39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D35355-8EFB-43E6-A260-3CC10EBE73D0}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9145,17 +9145,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2DD89EDA-A918-4032-919E-6DA2FC9A50D9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1920FAF7-074B-4B09-81B1-BC813A72B31B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DD4D6FDA-F90E-4DFD-AE52-933A51C3E0C6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E8ED6B45-E935-4B91-B8CB-935ACD4ABF3E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{92572C1A-EB42-4D87-BACD-F3475013E3EC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4163F561-85A4-40DC-811B-9FC092E73A27}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2A91C225-0AAA-431E-88ED-AD0A0E7A13AE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{85860E99-6204-4D32-9D57-D9F34E0A8099}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0E82C79B-B019-4893-B3C8-39A376F531FF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{BEF75B37-157E-4664-A84A-7B8F55BBCC85}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9406970C-4EA1-48A7-920F-E098F03E82A8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1602B026-0EE8-421C-BA07-A94FAF8D810B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DD5C25BE-1B54-4CC2-9BA5-D77879939613}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{080B76AD-9B0D-4791-8C47-5A7BD72A003F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7DB147F4-6DD9-4C26-ADEB-707194EB88BA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{550EEF4F-D054-4793-B4DA-A3563C0F81BE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AA956A59-8E7C-4355-8AFF-5FA7BAB131CA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A6CCAC3D-4F5A-4649-86A0-A95C5BC97496}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{07918EF4-C712-4164-8284-24D1A0B4C2E1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B2ABA156-99C1-410E-94DA-AFF07DDC45BD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4F3A6376-42A2-447D-9510-30CAF574A832}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{23CF723B-67DC-4B69-8021-D3F625459CAA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9168,7 +9168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A96B1616-C748-4CDD-A75A-6A4CECC73EA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FE8E95-D493-42BA-9AD1-688C61544478}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10453,17 +10453,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2CD1D9AE-F295-4E91-87CA-A7CB9554B003}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2CC39123-35B2-4B2E-9AEB-9EB7DD42E7CF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AD9147BE-7084-4E81-A748-710134534D78}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{05D101DA-F458-4DB1-A2C6-690D1F846939}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{740EECF0-2547-440B-B96D-29C1E7CD9E84}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{11E9A3EC-6483-4629-A4F0-87BE9080EBAB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{342EDBED-F683-4D3B-835E-680332674EA4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{084C4848-191A-40D0-BD77-69507DCFE743}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{AA276353-2BE9-43B5-BFBF-F3CBD92DC7EE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{21A21D62-818F-49DE-A596-F264E87C5155}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{944291C7-D16C-4EA8-88D6-1E1E66C5E791}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F9CFF6BD-D0C7-40BF-8AF3-492991FB3E12}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7ADBFDD3-CCBF-4460-813D-30FDC5FF4581}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{04A4C3A6-B443-4B6B-A5B2-CAFC77020AF7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{27B49531-AA76-4923-AF9D-84E1CA49692F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{39A6FECD-AC43-4BFA-B219-036AB7682BF4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{002EEF6D-7956-4ABB-BBC2-D1F40E0B33AF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{36B0F5F2-234C-4059-ACAC-22CD536E48AD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A787AEE9-84C2-4172-88A2-D687EC9193F1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B04B7B41-E8F7-4012-BC81-1A932A6E0F02}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{33968AB6-5F35-4DED-8320-45BE6F00B328}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B9B30FB5-757D-428B-8800-5647D17A64FF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10476,7 +10476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F21159-3389-428E-AB66-D1F046111085}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B22169-99AC-47BF-AE9E-1E31CC3EED45}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11761,17 +11761,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5C3DB9A9-A50E-4D4C-AB31-D5E68CFD5D0D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EFE40ED0-0EE3-414F-91C6-67B21BFDA4D2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DD0888FB-29CA-45DD-A8F4-6BCA3CF8F67A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2CF99F3D-8BA4-4DA4-B6A7-D38B629FA519}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5067FA87-AF60-4F3D-A958-97B3CA71EB3C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{872D503E-E1CF-4EF5-A20B-4442BA0AD563}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A047735C-FABC-4879-B1B0-2ADBEB65A852}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B51C9F3C-1E84-4668-AEEF-E26041399036}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A59F698D-92AF-4789-817A-3EFCCD1DA046}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9C02D502-A51B-43C5-A5C8-B9EB6DAFF9DA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BD66BEEB-A6E4-4DB7-B83F-7934479822FD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D3AB4245-349A-47CA-9890-E0F5FE1A5DD0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E4D0D44E-1BC7-4944-878E-920C1D724E98}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CED00769-2C1C-45C9-AC3D-BC91C463FF01}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D57DFED8-5C84-42C4-9E9F-BE7DF0BEE8C5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F333E85C-B833-4BEE-B92C-136E126B3003}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9883C201-3ED4-4EE3-8ADC-3629FC549108}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3DC7216C-4143-405D-96CC-5ADD512FA2F3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DA5D72F4-77DA-4C62-978F-09576525C4DC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6F837438-14A7-40C8-AFD6-EB8C2C5FDF0E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7EBB78D0-F2E7-42AE-AD9F-05B3B9C82DB9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6640731E-3FF1-40CF-8572-E489F343CA7A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11784,7 +11784,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{827B92A2-83C5-4FF4-BCC8-DDB33356E602}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74673E6F-6373-47DF-A97D-9F0A5D7C4C6F}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13069,17 +13069,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C83B7928-3C9C-48B0-9695-D15D60DB79F1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CD8CC4A9-8728-431C-92DF-5A01E830D9D5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{59655F12-5B3B-4128-AE4E-B8991DFDA9D9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C13E038F-3961-4E84-ACD3-75F5E7AB8C66}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D8C1D90A-22E4-407A-AAA5-F059E4CA9363}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9E0F6139-DAC5-4E57-8BC0-1630ECD140CB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{31290463-DD64-4E07-AE7B-2811B9D22735}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{530DDD95-7316-4FEE-9CEE-8B0F0BCD7136}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5B2177E2-E13F-4AD8-857C-12167E6D6056}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{FFB7F1AE-0F65-4FE5-9914-2DEBB7414056}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CA5D3A26-F09B-4A0A-99A9-D1CB89A1AA63}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E45A7D4C-50E0-49B0-A5D0-A8DECDEF0836}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B2F4045E-8A9A-400E-9650-5998D7A1DCFC}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2FA94201-EF7E-4B48-BB77-7D0D3B1F0DC6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{84D13150-0EC3-4A3B-ADA9-065B81E48A3D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BA1A3690-20A9-49CC-A317-C793A1814F1A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{038596B8-9D81-406B-9766-5B68FE2F17F0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6F7BE774-469B-4156-8746-49241BCA071B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9A6CAA9F-13F7-4265-BAD3-1178F112C813}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{41D0E8E5-6B51-4BA2-8252-349D4C9DB17E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0491C7D2-48F0-48A3-A77A-9ABB48328ABE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2D34129D-F393-4CF2-8943-B7761C5BE446}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13092,7 +13092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCECB0D-F1AF-400C-B0C3-4405D33BC743}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22AF5B05-97E0-4F4C-81B9-09327E260D47}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14377,17 +14377,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B3F1E55B-35C1-453A-8145-5C15A812AF78}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{646D239F-E46D-44E1-ABDE-CDA98E12CCCE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3742ACD7-F728-4B69-B022-C72E8D5DAE67}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4AC36242-E72E-4ACA-AC56-1E14F55D055B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{087487C3-A503-4121-B33D-65D4FB3F1B34}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{15367D7E-2968-45FB-9C23-AF77EF1423ED}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0AE151C9-8463-47C2-BF0E-D8D62FA421EB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{689DAC39-A7E1-49E0-B0A2-C4884BEDCD25}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{070A92A9-26C3-4398-98BC-753D61C29F2B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{14F2A07A-02C7-40BD-BD63-39153F03B465}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A994FF42-FDC9-4F69-861D-1AF0AF929665}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AFC23FC5-457A-4DF6-85DA-F9FF92D17F99}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D50D16E4-B212-4116-AFB6-E9827D1360B3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{77AB5BD5-0032-4AE4-B79D-8555572B933B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{37BEBCA1-73ED-440D-9671-E6E6EB98F607}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{87B3C083-BF67-417E-BFF9-94AEB7550308}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2441CD47-6383-46FF-B20F-F366E11DFE5C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C6CD3749-65D9-41C1-91A9-003063B292C2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6848BDBF-AE03-4E2E-98E2-BD7B4AC1323C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{86218E05-F2BE-4F30-9BFA-96C245C1ADF0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{42863353-7973-486B-BB28-6C2EB9008E76}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2EB24467-4E46-4BCD-AE97-9E167D08FCB6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14400,7 +14400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DE02C9E-199A-4620-8D52-951BF23AAD37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958F67F3-677B-4B07-AA72-193153794D89}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -15686,17 +15686,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B6BC79E4-4BC4-43EC-A159-67E4E0F93303}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{378F113B-9C40-4191-89B3-A8EC45776D9B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{600FEFA7-2810-4578-BFD5-7875F296555E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7CFDF7F0-55B9-438D-A3EC-E0F31FA1B126}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{32DBE25F-8E1E-4C86-926F-D5E6CED4F1A4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F4FF816B-C366-4341-8A0D-3CAE48C72CC4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B8DAB4E1-5980-4A83-94F6-700BDFA449C4}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{622F8CBB-03A9-4B9E-8891-0F12CDCE134B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{04733227-ADE6-4A22-AEA1-DC9AA8374C84}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F53904B2-82BA-4401-8C07-83AC714D5C08}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{84E18EAF-4101-4713-A3F6-944527C5B745}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BB483112-943C-4999-A563-06F93E44FB8E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5500EA7F-EF07-4F5E-8A6B-FA9508490E1D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C834C923-3C05-4653-B7B2-6D183A1675F2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D01C7604-B99C-47DD-8BFC-C60796D5F261}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{37907643-C9EA-4602-9D91-3851A0B597FD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F9FE2281-A2E7-40E9-9A69-4B757577C992}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{44893A41-F022-432F-8C0C-E1BA72E929A1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{462BCF1B-7714-4CCA-9892-86824D3FC25B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{65A69571-0207-47DB-A16F-1AD7E568207B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F12E9B39-8EB7-4316-9F2A-3C1A72E8D1D6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{12B5AA0E-F759-4208-9E95-7F6548252672}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15709,7 +15709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6398A3-A498-416E-A4D3-91B499738581}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA9DBA8-0EBC-4833-99D9-D67412E019FE}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -16995,17 +16995,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{56AA988D-A549-4094-B193-E969F4AAFAD4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{13A0501F-E463-49A8-85B7-D1A37170651F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6D56D8E5-71D1-46B6-9C8B-348EC9576948}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DAC125C9-ED31-4E1B-80DC-74C449C3AC6F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F1678F1E-9007-4CFD-B14A-C56B5BCCB26B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BCEA0A23-DCBB-42F2-AC9A-AB92FB3C3307}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{61CB4638-4543-40C8-87D1-040A445758B5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{00A0AF57-F430-4BEB-9D13-11E5BF381303}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5FD356FE-8126-4B08-AC69-4923F27FA7B6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8700823B-BCC1-4493-ACCB-A933305F970B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{91881FF0-5904-4D2F-AA50-E83A73C4D462}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{362256CA-0CE1-4BF6-B784-358553818C58}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6FBB3630-12BB-4EE6-9FFC-C94186E59F86}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EF11265A-10DD-4379-A6FC-0CD96C1FE558}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E09F7FE2-E8D8-4547-825B-DA1D0868B562}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BC0EAC18-861C-4A91-87AD-A1F46D766A1C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7A788652-2329-41BD-9FDC-65EE205E65CA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2EFE30FD-2613-46AD-ABFB-A796595E4EFF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1F03B36D-1BF3-4707-844A-5E14C687E6B7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{336A9856-8B9F-4CCB-8FB9-B0B890A75D66}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{259A9F39-F238-410C-BFBD-F31BAC86F150}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D0F72C96-512F-4FBB-B59C-16654B8E1C44}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
